--- a/src/test/java/seatech/uiTest/ibv/testcase/TC_Ck trong.xlsx
+++ b/src/test/java/seatech/uiTest/ibv/testcase/TC_Ck trong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\automation-test-master\src\test\java\seatech\uiTest\ibv\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49FAD80-6881-47C5-9676-6FC042667DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7EC1684-2980-4D23-8047-58ED265FD02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,7 +531,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -696,46 +696,9 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1024,7 +987,7 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,7 +1408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" s="40" t="s">
         <v>57</v>
       </c>
@@ -1486,7 +1449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="70" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1729,7 +1692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B35" s="40" t="s">
         <v>57</v>
       </c>
@@ -2033,7 +1996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="40" t="s">
         <v>57</v>
       </c>
@@ -3054,188 +3017,187 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="57" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.25" style="57" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.375" style="57" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.75" style="57" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="11" style="57"/>
+    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="56"/>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
       <c r="D1" s="56"/>
       <c r="E1" s="56"/>
     </row>
-    <row r="2" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="56"/>
       <c r="B2" s="56"/>
       <c r="C2" s="56"/>
       <c r="D2" s="56"/>
       <c r="E2" s="56"/>
     </row>
-    <row r="3" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="56"/>
       <c r="B3" s="56"/>
       <c r="C3" s="56"/>
       <c r="D3" s="56"/>
       <c r="E3" s="56"/>
     </row>
-    <row r="4" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="56"/>
       <c r="B4" s="56"/>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
       <c r="E4" s="56"/>
     </row>
-    <row r="5" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="56"/>
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
       <c r="E5" s="56"/>
     </row>
-    <row r="6" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="56"/>
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
       <c r="E6" s="56"/>
     </row>
-    <row r="7" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="56"/>
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
       <c r="D7" s="56"/>
       <c r="E7" s="56"/>
     </row>
-    <row r="8" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="56"/>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
     </row>
-    <row r="9" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="56"/>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
       <c r="D9" s="56"/>
       <c r="E9" s="56"/>
     </row>
-    <row r="10" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="56"/>
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
       <c r="E10" s="56"/>
     </row>
-    <row r="11" spans="1:5" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="56"/>
       <c r="B11" s="56"/>
       <c r="C11" s="56"/>
       <c r="D11" s="56"/>
       <c r="E11" s="56"/>
     </row>
-    <row r="51" spans="1:7" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="58"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="58"/>
-      <c r="F51" s="61"/>
-      <c r="G51" s="58"/>
-    </row>
-    <row r="52" spans="1:7" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="58"/>
-    </row>
-    <row r="53" spans="1:7" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="58"/>
-    </row>
-    <row r="54" spans="1:7" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="B54" s="59"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="58"/>
-    </row>
-    <row r="55" spans="1:7" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="58"/>
-    </row>
-    <row r="56" spans="1:7" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="64"/>
-      <c r="G56" s="58"/>
-    </row>
-    <row r="57" spans="1:7" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="64"/>
-      <c r="G57" s="58"/>
-    </row>
-    <row r="58" spans="1:7" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="58"/>
-    </row>
-    <row r="59" spans="1:7" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="61"/>
-      <c r="G59" s="61"/>
-    </row>
-    <row r="60" spans="1:7" s="62" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
-    </row>
-    <row r="61" spans="1:7" s="62" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="69"/>
-      <c r="G61" s="58"/>
+    <row r="51" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="33"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="33"/>
+    </row>
+    <row r="52" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="33"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="33"/>
+    </row>
+    <row r="53" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="33"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="33"/>
+    </row>
+    <row r="54" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="33"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="33"/>
+    </row>
+    <row r="55" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="33"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="33"/>
+    </row>
+    <row r="56" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="33"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="33"/>
+    </row>
+    <row r="57" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="33"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="33"/>
+    </row>
+    <row r="58" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="33"/>
+    </row>
+    <row r="59" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+    </row>
+    <row r="60" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+    </row>
+    <row r="61" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="33"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/java/seatech/uiTest/ibv/testcase/TC_Ck trong.xlsx
+++ b/src/test/java/seatech/uiTest/ibv/testcase/TC_Ck trong.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\automation-test-master\src\test\java\seatech\uiTest\ibv\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E11D2A-5BC8-40E6-B1B2-494378B796EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8F8F42-2694-410E-9F82-65EC32F0C394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="94">
   <si>
     <t>action</t>
   </si>
@@ -301,15 +301,38 @@
   </si>
   <si>
     <t>Test TC3</t>
+  </si>
+  <si>
+    <t>amountChange2</t>
+  </si>
+  <si>
+    <t>999999999999999999</t>
+  </si>
+  <si>
+    <t>29.411.764.705,88</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -554,6 +577,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -610,13 +639,13 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -624,183 +653,196 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2563,10 +2605,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A4686F-AD6F-4A54-955C-EAF804AC16A6}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3326,108 +3368,104 @@
       <c r="G41" s="29"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
+      <c r="A42" s="28"/>
       <c r="B42" s="33" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E42" s="33" t="s">
         <v>57</v>
       </c>
       <c r="F42" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" s="55"/>
-    </row>
-    <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="G42" s="29"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="28"/>
-      <c r="B43" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>56</v>
+      <c r="B43" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
-      <c r="B44" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="B44" s="11"/>
       <c r="C44" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="G44" s="29"/>
+      <c r="D44" s="67" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="64"/>
+      <c r="G44" s="66"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="11"/>
+      <c r="C45" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E45" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="64"/>
+      <c r="G45" s="66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="28"/>
+      <c r="B46" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="29" t="s">
+      <c r="C46" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="28" t="s">
+      <c r="E46" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F45" s="32">
+      <c r="F46" s="32">
         <v>456123</v>
       </c>
-      <c r="G45" s="29"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="11" t="s">
+      <c r="G46" s="29"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="40"/>
+      <c r="B47" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="17" t="s">
+      <c r="C47" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>42</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="29"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>45</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>2</v>
@@ -3435,259 +3473,259 @@
       <c r="F47" s="12"/>
       <c r="G47" s="29"/>
     </row>
-    <row r="48" spans="1:7" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="63" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="B48" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="29"/>
+    </row>
+    <row r="49" spans="1:7" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="40"/>
+      <c r="B49" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C48" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="39" t="s">
+      <c r="C49" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="63" t="s">
+      <c r="E49" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="F48" s="61"/>
-      <c r="G48" s="17" t="s">
+      <c r="F49" s="61"/>
+      <c r="G49" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="28" t="s">
+      <c r="D50" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="28" t="s">
         <v>30</v>
-      </c>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="47" t="s">
-        <v>27</v>
       </c>
       <c r="F50" s="61"/>
       <c r="G50" s="61"/>
     </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="51" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="47"/>
+      <c r="B51" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B52" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="38" t="s">
+      <c r="C52" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E51" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28" t="s">
+      <c r="E52" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D52" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="28" t="s">
+      <c r="D53" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F52" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
+      <c r="F53" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="B54" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="29" t="s">
+      <c r="C54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E53" s="28" t="s">
+      <c r="E54" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F53" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40" t="s">
+      <c r="F54" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C54" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="39" t="s">
+      <c r="C55" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-    </row>
-    <row r="55" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
-      <c r="B55" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>60</v>
-      </c>
+      <c r="E55" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55" s="29"/>
       <c r="G55" s="29"/>
     </row>
     <row r="56" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="33" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="C56" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E56" s="33" t="s">
         <v>57</v>
       </c>
       <c r="F56" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" s="55"/>
+        <v>60</v>
+      </c>
+      <c r="G56" s="29"/>
     </row>
     <row r="57" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="33" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C57" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="E57" s="33" t="s">
         <v>57</v>
       </c>
       <c r="F57" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="55"/>
+    </row>
+    <row r="58" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="40"/>
+      <c r="B58" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="34" t="s">
         <v>56</v>
-      </c>
-      <c r="G57" s="29"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58" s="31">
-        <v>21001</v>
       </c>
       <c r="G58" s="29"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E59" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F59" s="32"/>
+      <c r="F59" s="31">
+        <v>21001</v>
+      </c>
       <c r="G59" s="29"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C60" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="17" t="s">
-        <v>42</v>
+      <c r="D60" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F60" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="F60" s="32"/>
       <c r="G60" s="29"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="41" t="s">
-        <v>45</v>
+      <c r="D61" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E61" s="28" t="s">
         <v>2</v>
@@ -3697,308 +3735,304 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
-      <c r="B62" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="60" t="s">
-        <v>3</v>
-      </c>
+      <c r="B62" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="12"/>
+      <c r="G62" s="29"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
-      <c r="B63" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="62" t="s">
+      <c r="B63" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="40" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="E63" s="62" t="s">
+      <c r="E63" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="40"/>
+      <c r="B64" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-    </row>
-    <row r="64" spans="1:7" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B64" s="28" t="s">
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+    </row>
+    <row r="65" spans="1:7" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B65" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="28" t="s">
+      <c r="D65" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G64" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65" s="47" t="s">
+      <c r="F65" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B66" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="48" t="s">
+      <c r="C66" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E65" s="47" t="s">
+      <c r="E66" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G65" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="51" t="s">
+      <c r="F66" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="37" t="s">
+      <c r="B67" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C66" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="38" t="s">
+      <c r="C67" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E66" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28" t="s">
+      <c r="E67" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="28"/>
+      <c r="B68" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="28" t="s">
+      <c r="D68" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F67" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G67" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="52" t="s">
+      <c r="F68" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B69" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="29" t="s">
+      <c r="C69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E68" s="28" t="s">
+      <c r="E69" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F68" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G68" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40" t="s">
+      <c r="F69" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="40"/>
+      <c r="B70" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C69" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="39" t="s">
+      <c r="C70" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E69" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F69" s="29"/>
-      <c r="G69" s="29"/>
-    </row>
-    <row r="70" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="40"/>
-      <c r="B70" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F70" s="34" t="s">
-        <v>60</v>
-      </c>
+      <c r="E70" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="29"/>
       <c r="G70" s="29"/>
     </row>
     <row r="71" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="33" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E71" s="33" t="s">
         <v>57</v>
       </c>
       <c r="F71" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G71" s="55"/>
+        <v>60</v>
+      </c>
+      <c r="G71" s="29"/>
     </row>
     <row r="72" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="33" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="E72" s="33" t="s">
         <v>57</v>
       </c>
       <c r="F72" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G72" s="55"/>
+    </row>
+    <row r="73" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="40"/>
+      <c r="B73" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F73" s="34" t="s">
         <v>55</v>
-      </c>
-      <c r="G72" s="29"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
-      <c r="B73" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E73" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F73" s="31">
-        <v>22225</v>
       </c>
       <c r="G73" s="29"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C74" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E74" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F74" s="32" t="s">
-        <v>76</v>
+      <c r="F74" s="31">
+        <v>22225</v>
       </c>
       <c r="G74" s="29"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G75" s="29"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="40"/>
+      <c r="B76" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C75" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="41" t="s">
+      <c r="C76" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E75" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F75" s="12"/>
-      <c r="G75" s="29"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28" t="s">
+      <c r="E76" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" s="12"/>
+      <c r="G76" s="29"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="28"/>
+      <c r="B77" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D76" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="28" t="s">
+      <c r="D77" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="28" t="s">
         <v>30</v>
-      </c>
-      <c r="F76" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="E77" s="40" t="s">
-        <v>13</v>
       </c>
       <c r="F77" s="60" t="s">
         <v>3</v>
@@ -4009,8 +4043,8 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
-      <c r="B78" s="54" t="s">
-        <v>75</v>
+      <c r="B78" s="52" t="s">
+        <v>73</v>
       </c>
       <c r="C78" s="53" t="s">
         <v>12</v>
@@ -4018,18 +4052,41 @@
       <c r="D78" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E78" s="54" t="s">
+      <c r="E78" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="40"/>
+      <c r="B79" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C79" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E79" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="F78" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G78" s="60" t="s">
+      <c r="F79" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79" s="60" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/java/seatech/uiTest/ibv/testcase/TC_Ck trong.xlsx
+++ b/src/test/java/seatech/uiTest/ibv/testcase/TC_Ck trong.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\automation-test-master\src\test\java\seatech\uiTest\ibv\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F8F8F42-2694-410E-9F82-65EC32F0C394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B53371-4900-4AF6-9980-0028C30EB554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ck_trong(USD_USD)" sheetId="5" r:id="rId1"/>
-    <sheet name="ck_trong(VND_USD)" sheetId="6" r:id="rId2"/>
-    <sheet name="ck_trong(VND)" sheetId="4" r:id="rId3"/>
-    <sheet name="signup" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
+    <sheet name="ck_trong(VND)" sheetId="4" r:id="rId2"/>
+    <sheet name="ck_trong(USD_USD)" sheetId="5" r:id="rId3"/>
+    <sheet name="ck_trong(VND_USD)" sheetId="6" r:id="rId4"/>
+    <sheet name="signup" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="100">
   <si>
     <t>action</t>
   </si>
@@ -306,17 +307,38 @@
     <t>amountChange2</t>
   </si>
   <si>
-    <t>999999999999999999</t>
-  </si>
-  <si>
-    <t>29.411.764.705,88</t>
+    <t>2.614.379.084,97</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>34000</t>
+  </si>
+  <si>
+    <t>64000</t>
+  </si>
+  <si>
+    <t>777777777777777</t>
+  </si>
+  <si>
+    <t>10301816_dmaker1</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -583,6 +605,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -645,7 +673,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -840,13 +868,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1131,11 +1161,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452D2117-FBBE-47FF-AA9A-5E3EC066F44F}">
-  <dimension ref="A1:G78"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE052DCD-3325-4642-A342-CC34524B35EE}">
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.25" customWidth="1"/>
+    <col min="5" max="5" width="30.375" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="47"/>
+      <c r="B3" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="48"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="48"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="50">
+        <v>12345</v>
+      </c>
+      <c r="G5" s="48"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
+      <c r="B8" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="37" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DEF451-0653-409A-80AA-B1EEE4FA6368}">
+  <dimension ref="A1:G73"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1384,96 +1588,94 @@
         <v>57</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="33" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="55"/>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" s="29"/>
+        <v>55</v>
+      </c>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="9">
+        <v>34000</v>
+      </c>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="9">
-        <v>34000</v>
+      <c r="F16" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>41</v>
+      <c r="D17" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>81</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F17" s="12"/>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>42</v>
+      <c r="D18" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>2</v>
@@ -1483,106 +1685,106 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="18" t="s">
+      <c r="B19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="12"/>
+      <c r="E19" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="14"/>
       <c r="G19" s="13"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F20" s="14"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G20" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="23" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="44" t="s">
+      <c r="B22" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="45" t="s">
+      <c r="C22" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="F23" s="45"/>
-      <c r="G23" s="46"/>
+      <c r="E22" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="45"/>
+      <c r="G22" s="46"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="13"/>
@@ -1590,438 +1792,436 @@
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="13"/>
+    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="40"/>
+      <c r="B26" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="29"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C27" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E27" s="33" t="s">
         <v>57</v>
       </c>
       <c r="F27" s="34" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G27" s="29"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="55"/>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="29"/>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="9">
+        <v>64554</v>
+      </c>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>38</v>
+      <c r="D30" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" s="9">
-        <v>64</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F30" s="12"/>
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>41</v>
+      <c r="D31" s="18" t="s">
+        <v>45</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>82</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F31" s="12"/>
       <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="12"/>
+      <c r="B32" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="14"/>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
+      <c r="B33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="13"/>
+      <c r="B34" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="A35" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-    </row>
-    <row r="37" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D38" s="29" t="s">
-        <v>3</v>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="F38" s="29"/>
       <c r="G38" s="29"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F39" s="29"/>
+    <row r="39" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="28"/>
+      <c r="B39" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="34" t="s">
+        <v>56</v>
+      </c>
       <c r="G39" s="29"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="29"/>
+    <row r="40" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="28"/>
+      <c r="B40" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="34" t="s">
+        <v>55</v>
+      </c>
       <c r="G40" s="29"/>
     </row>
-    <row r="41" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="28"/>
-      <c r="B41" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" s="34" t="s">
-        <v>60</v>
+      <c r="B41" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F41" s="57" t="s">
+        <v>85</v>
       </c>
       <c r="G41" s="29"/>
     </row>
-    <row r="42" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
-      <c r="B42" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F42" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G42" s="55"/>
-    </row>
-    <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="28"/>
-      <c r="B43" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E43" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F43" s="34" t="s">
-        <v>56</v>
-      </c>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="28"/>
+      <c r="B42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G42" s="29"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="40"/>
+      <c r="B43" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="12"/>
       <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="29" t="s">
-        <v>38</v>
+      <c r="D44" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F44" s="57" t="s">
-        <v>85</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F44" s="12"/>
       <c r="G44" s="29"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F45" s="32">
-        <v>456123</v>
-      </c>
-      <c r="G45" s="29"/>
+    <row r="45" spans="1:7" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="40"/>
+      <c r="B45" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="61"/>
+      <c r="G45" s="17" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>42</v>
+      <c r="A46" s="28"/>
+      <c r="B46" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="29"/>
+        <v>30</v>
+      </c>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C47" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="29"/>
-    </row>
-    <row r="48" spans="1:7" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E48" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F48" s="61"/>
-      <c r="G48" s="17" t="s">
-        <v>70</v>
-      </c>
+      <c r="A47" s="47"/>
+      <c r="B47" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+    </row>
+    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="28"/>
@@ -2037,283 +2237,294 @@
       <c r="E49" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="61"/>
-      <c r="G49" s="61"/>
+      <c r="F49" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="61" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="47"/>
-      <c r="B50" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="47" t="s">
+      <c r="A50" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="61"/>
-      <c r="G50" s="61"/>
-    </row>
-    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E51" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="29" t="s">
+      <c r="F50" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" s="61" t="s">
+      <c r="G50" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="61" t="s">
-        <v>3</v>
-      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="40"/>
+      <c r="B51" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+    </row>
+    <row r="52" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="40"/>
+      <c r="B52" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="29"/>
+    </row>
+    <row r="53" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="40"/>
+      <c r="B53" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G53" s="29"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
-      <c r="B54" s="40" t="s">
-        <v>32</v>
+      <c r="B54" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="D54" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F54" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="F54" s="31">
+        <v>21112</v>
+      </c>
       <c r="G54" s="29"/>
     </row>
-    <row r="55" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
-      <c r="B55" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E55" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F55" s="34" t="s">
-        <v>60</v>
-      </c>
+      <c r="B55" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F55" s="32"/>
       <c r="G55" s="29"/>
     </row>
-    <row r="56" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
-      <c r="B56" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F56" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G56" s="55"/>
-    </row>
-    <row r="57" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="12"/>
+      <c r="G56" s="29"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
-      <c r="B57" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F57" s="34" t="s">
-        <v>56</v>
-      </c>
+      <c r="B57" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F57" s="12"/>
       <c r="G57" s="29"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
-      <c r="B58" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58" s="31">
-        <v>21</v>
-      </c>
-      <c r="G58" s="29"/>
+      <c r="B58" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="60" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
-      <c r="B59" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F59" s="32"/>
-      <c r="G59" s="29"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="17" t="s">
-        <v>42</v>
+      <c r="B59" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E59" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+    </row>
+    <row r="60" spans="1:7" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B60" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="29"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F61" s="12"/>
-      <c r="G61" s="29"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C62" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="E62" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="F60" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="60" t="s">
+      <c r="G60" s="60" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="61" spans="1:7" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F61" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+    </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="C63" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="E63" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-    </row>
-    <row r="64" spans="1:7" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="28"/>
+      <c r="B63" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F63" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="52" t="s">
+        <v>72</v>
+      </c>
       <c r="B64" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D64" s="29" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F64" s="60" t="s">
         <v>3</v>
@@ -2322,293 +2533,190 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E65" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="F65" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G65" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="28"/>
-      <c r="B67" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D67" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F67" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G67" s="60" t="s">
-        <v>3</v>
-      </c>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="40"/>
+      <c r="B65" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+    </row>
+    <row r="66" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="40"/>
+      <c r="B66" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F66" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" s="29"/>
+    </row>
+    <row r="67" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="40"/>
+      <c r="B67" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E67" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" s="29"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C68" s="4" t="s">
+      <c r="A68" s="40"/>
+      <c r="B68" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E68" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G68" s="60" t="s">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F68" s="31">
+        <v>22111</v>
+      </c>
+      <c r="G68" s="29"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
-      <c r="B69" s="40" t="s">
-        <v>32</v>
+      <c r="B69" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="C69" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="39" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>41</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F69" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="F69" s="32" t="s">
+        <v>76</v>
+      </c>
       <c r="G69" s="29"/>
     </row>
-    <row r="70" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
-      <c r="B70" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E70" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F70" s="34" t="s">
-        <v>60</v>
-      </c>
+      <c r="B70" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="12"/>
       <c r="G70" s="29"/>
     </row>
-    <row r="71" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="40"/>
-      <c r="B71" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E71" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F71" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="G71" s="55"/>
-    </row>
-    <row r="72" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F71" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
-      <c r="B72" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C72" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E72" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F72" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G72" s="29"/>
+      <c r="B72" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E72" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="60" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
-      <c r="B73" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E73" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F73" s="31">
-        <v>22</v>
-      </c>
-      <c r="G73" s="29"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
-      <c r="B74" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E74" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F74" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G74" s="29"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
-      <c r="B75" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D75" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E75" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F75" s="12"/>
-      <c r="G75" s="29"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="28"/>
-      <c r="B76" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D76" s="29" t="s">
+      <c r="B73" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E73" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="F73" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E76" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F76" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="52" t="s">
-        <v>73</v>
-      </c>
-      <c r="C77" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="E77" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G77" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D78" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="E78" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="F78" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G78" s="60" t="s">
+      <c r="G73" s="60" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A4686F-AD6F-4A54-955C-EAF804AC16A6}">
-  <dimension ref="A1:G79"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452D2117-FBBE-47FF-AA9A-5E3EC066F44F}">
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2876,7 +2984,7 @@
         <v>57</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G14" s="55"/>
     </row>
@@ -3128,7 +3236,7 @@
         <v>57</v>
       </c>
       <c r="F28" s="34" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G28" s="55"/>
     </row>
@@ -3166,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="9">
-        <v>64000</v>
+        <v>64</v>
       </c>
       <c r="G30" s="13"/>
     </row>
@@ -3368,104 +3476,108 @@
       <c r="G41" s="29"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="28"/>
+      <c r="A42" s="40"/>
       <c r="B42" s="33" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="E42" s="33" t="s">
         <v>57</v>
       </c>
       <c r="F42" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="G42" s="55"/>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="28"/>
+      <c r="B43" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="34" t="s">
         <v>56</v>
-      </c>
-      <c r="G42" s="29"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F43" s="64" t="s">
-        <v>92</v>
       </c>
       <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
-      <c r="B44" s="11"/>
+      <c r="B44" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="C44" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="67" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="68" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" s="64"/>
-      <c r="G44" s="66"/>
+      <c r="D44" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F44" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="29"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="28"/>
-      <c r="B45" s="11"/>
+      <c r="B45" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="C45" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D45" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="64"/>
-      <c r="G45" s="66" t="s">
-        <v>93</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="32">
+        <v>456123</v>
+      </c>
+      <c r="G45" s="29"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
+      <c r="A46" s="40"/>
       <c r="B46" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="29" t="s">
-        <v>41</v>
+      <c r="D46" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F46" s="32">
-        <v>456123</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F46" s="12"/>
       <c r="G46" s="29"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
+      <c r="A47" s="28"/>
       <c r="B47" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C47" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="17" t="s">
-        <v>42</v>
+      <c r="D47" s="30" t="s">
+        <v>45</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>2</v>
@@ -3473,259 +3585,251 @@
       <c r="F47" s="12"/>
       <c r="G47" s="29"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="29"/>
-    </row>
-    <row r="49" spans="1:7" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="63" t="s">
+    <row r="48" spans="1:7" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="40"/>
+      <c r="B48" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="39" t="s">
+      <c r="C48" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="63" t="s">
+      <c r="E48" s="63" t="s">
         <v>50</v>
       </c>
+      <c r="F48" s="61"/>
+      <c r="G48" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>30</v>
+      </c>
       <c r="F49" s="61"/>
-      <c r="G49" s="17" t="s">
-        <v>70</v>
-      </c>
+      <c r="G49" s="61"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>30</v>
+      <c r="A50" s="47"/>
+      <c r="B50" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="47" t="s">
+        <v>27</v>
       </c>
       <c r="F50" s="61"/>
       <c r="G50" s="61"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="47"/>
-      <c r="B51" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C51" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="47" t="s">
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61"/>
-    </row>
-    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E52" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="28"/>
-      <c r="B53" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="61" t="s">
-        <v>3</v>
-      </c>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>28</v>
+      <c r="A54" s="40"/>
+      <c r="B54" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F54" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+    </row>
+    <row r="55" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
-      <c r="B55" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F55" s="29"/>
+      <c r="B55" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" s="34" t="s">
+        <v>60</v>
+      </c>
       <c r="G55" s="29"/>
     </row>
     <row r="56" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="33" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C56" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D56" s="33" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E56" s="33" t="s">
         <v>57</v>
       </c>
       <c r="F56" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G56" s="29"/>
+        <v>83</v>
+      </c>
+      <c r="G56" s="55"/>
     </row>
     <row r="57" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="33" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C57" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D57" s="33" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E57" s="33" t="s">
         <v>57</v>
       </c>
       <c r="F57" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G57" s="55"/>
-    </row>
-    <row r="58" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="G57" s="29"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
-      <c r="B58" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E58" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F58" s="34" t="s">
-        <v>56</v>
+      <c r="B58" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F58" s="31">
+        <v>21</v>
       </c>
       <c r="G58" s="29"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C59" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D59" s="29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E59" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F59" s="31">
-        <v>21001</v>
-      </c>
+      <c r="F59" s="32"/>
       <c r="G59" s="29"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C60" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="29" t="s">
-        <v>41</v>
+      <c r="D60" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="E60" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F60" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="F60" s="12"/>
       <c r="G60" s="29"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C61" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="17" t="s">
-        <v>42</v>
+      <c r="D61" s="41" t="s">
+        <v>45</v>
       </c>
       <c r="E61" s="28" t="s">
         <v>2</v>
@@ -3735,316 +3839,292 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
-      <c r="B62" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="29"/>
+      <c r="B62" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E62" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="60"/>
+      <c r="G62" s="60"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
-      <c r="B63" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" s="40" t="s">
+      <c r="B63" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C63" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D63" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="E63" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="60" t="s">
+      <c r="E63" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+    </row>
+    <row r="64" spans="1:7" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B64" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G63" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="C64" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="62" t="s">
-        <v>69</v>
+      <c r="E64" s="28" t="s">
+        <v>30</v>
       </c>
       <c r="F64" s="60"/>
       <c r="G64" s="60"/>
     </row>
-    <row r="65" spans="1:7" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B65" s="28" t="s">
+    <row r="65" spans="1:7" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B65" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+    </row>
+    <row r="66" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E66" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="28"/>
+      <c r="B67" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D65" s="29" t="s">
+      <c r="D67" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="28" t="s">
+      <c r="E67" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F65" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G65" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B66" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E66" s="47" t="s">
+      <c r="F67" s="60"/>
+      <c r="G67" s="60"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D68" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E68" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F66" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E67" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="28"/>
-      <c r="B68" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F68" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G68" s="60" t="s">
-        <v>3</v>
-      </c>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>28</v>
+      <c r="A69" s="40"/>
+      <c r="B69" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C69" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F69" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G69" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+    </row>
+    <row r="70" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
-      <c r="B70" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C70" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E70" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F70" s="29"/>
+      <c r="B70" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E70" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" s="34" t="s">
+        <v>60</v>
+      </c>
       <c r="G70" s="29"/>
     </row>
     <row r="71" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="33" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C71" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D71" s="33" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E71" s="33" t="s">
         <v>57</v>
       </c>
       <c r="F71" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="G71" s="29"/>
+        <v>83</v>
+      </c>
+      <c r="G71" s="55"/>
     </row>
     <row r="72" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="33" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D72" s="33" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
       <c r="E72" s="33" t="s">
         <v>57</v>
       </c>
       <c r="F72" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G72" s="55"/>
-    </row>
-    <row r="73" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="G72" s="29"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
-      <c r="B73" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C73" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E73" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F73" s="34" t="s">
-        <v>55</v>
+      <c r="B73" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E73" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F73" s="31">
+        <v>22</v>
       </c>
       <c r="G73" s="29"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C74" s="28" t="s">
         <v>11</v>
       </c>
       <c r="D74" s="29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E74" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F74" s="31">
-        <v>22225</v>
+      <c r="F74" s="32" t="s">
+        <v>76</v>
       </c>
       <c r="G74" s="29"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C75" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="29" t="s">
-        <v>41</v>
+      <c r="D75" s="41" t="s">
+        <v>45</v>
       </c>
       <c r="E75" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F75" s="32" t="s">
-        <v>76</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F75" s="12"/>
       <c r="G75" s="29"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-      <c r="B76" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D76" s="41" t="s">
-        <v>45</v>
+      <c r="A76" s="28"/>
+      <c r="B76" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76" s="29" t="s">
+        <v>3</v>
       </c>
       <c r="E76" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F76" s="12"/>
-      <c r="G76" s="29"/>
+        <v>30</v>
+      </c>
+      <c r="F76" s="60"/>
+      <c r="G76" s="60"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="28"/>
-      <c r="B77" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D77" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E77" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F77" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G77" s="60" t="s">
-        <v>3</v>
-      </c>
+      <c r="A77" s="40"/>
+      <c r="B77" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="E77" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
-      <c r="B78" s="52" t="s">
-        <v>73</v>
+      <c r="B78" s="54" t="s">
+        <v>75</v>
       </c>
       <c r="C78" s="53" t="s">
         <v>12</v>
@@ -4052,50 +4132,24 @@
       <c r="D78" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E78" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G78" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="C79" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="E79" s="54" t="s">
+      <c r="E78" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="F79" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G79" s="60" t="s">
-        <v>3</v>
-      </c>
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DEF451-0653-409A-80AA-B1EEE4FA6368}">
-  <dimension ref="A1:G73"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A4686F-AD6F-4A54-955C-EAF804AC16A6}">
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4104,7 +4158,7 @@
     <col min="2" max="2" width="23.25" customWidth="1"/>
     <col min="3" max="3" width="18.75" customWidth="1"/>
     <col min="4" max="4" width="39.875" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
     <col min="7" max="7" width="26.875" customWidth="1"/>
   </cols>
@@ -4344,1135 +4398,1207 @@
         <v>57</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="33" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>11</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" s="9">
-        <v>34000</v>
-      </c>
-      <c r="G15" s="13"/>
+        <v>79</v>
+      </c>
+      <c r="G14" s="55"/>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="40"/>
+      <c r="B15" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="29"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>89</v>
+      <c r="F16" s="68" t="s">
+        <v>94</v>
       </c>
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>42</v>
+      <c r="D17" s="16" t="s">
+        <v>41</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="64"/>
+      <c r="G18" s="67" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="19" t="s">
+      <c r="B19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="E20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
+      <c r="B21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="46"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="14"/>
+      <c r="G22" s="20" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="13"/>
+      <c r="B23" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="13"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="33" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="40"/>
+      <c r="B28" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="33" t="s">
+      <c r="C28" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E28" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="29"/>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="33" t="s">
+      <c r="F28" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="40"/>
+      <c r="B29" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="40"/>
+      <c r="B30" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="33" t="s">
+      <c r="C30" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E30" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" s="9">
-        <v>64554</v>
-      </c>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
+      <c r="F30" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>45</v>
+      <c r="D31" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F31" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="F31" s="68" t="s">
+        <v>95</v>
+      </c>
       <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F32" s="14"/>
+      <c r="B32" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="G32" s="13"/>
     </row>
-    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="B33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="12"/>
+      <c r="G34" s="13"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="13"/>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="14"/>
+      <c r="G36" s="20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="22" t="s">
+      <c r="C37" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-    </row>
-    <row r="35" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="51" t="s">
+      <c r="E37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B38" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="38" t="s">
+      <c r="C38" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28" t="s">
+      <c r="E38" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="29" t="s">
+      <c r="D39" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="28" t="s">
+      <c r="E39" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="58" t="s">
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="28" t="s">
+      <c r="B40" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="29" t="s">
+      <c r="C40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="28" t="s">
+      <c r="E40" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40" t="s">
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="39" t="s">
+      <c r="C41" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-    </row>
-    <row r="39" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
-      <c r="B39" s="33" t="s">
+      <c r="E41" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="28"/>
+      <c r="B42" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="33" t="s">
+      <c r="C42" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E42" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="34" t="s">
+      <c r="F42" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G42" s="29"/>
+    </row>
+    <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="28"/>
+      <c r="B43" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F43" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="G39" s="29"/>
-    </row>
-    <row r="40" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F40" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" s="29"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" s="29"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C43" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F43" s="12"/>
       <c r="G43" s="29"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="28"/>
       <c r="B44" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="30" t="s">
-        <v>45</v>
+      <c r="D44" s="29" t="s">
+        <v>38</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F44" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="F44" s="69" t="s">
+        <v>96</v>
+      </c>
       <c r="G44" s="29"/>
     </row>
-    <row r="45" spans="1:7" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="63" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="E45" s="63" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="61"/>
-      <c r="G45" s="17" t="s">
-        <v>70</v>
-      </c>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="28"/>
+      <c r="B45" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F45" s="32">
+        <v>456123</v>
+      </c>
+      <c r="G45" s="29"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="28"/>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="11"/>
+      <c r="C46" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E46" s="65" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="64"/>
+      <c r="G46" s="66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="40"/>
+      <c r="B47" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="12"/>
+      <c r="G47" s="29"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="28"/>
+      <c r="B48" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="12"/>
+      <c r="G48" s="29"/>
+    </row>
+    <row r="49" spans="1:7" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="40"/>
+      <c r="B49" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="61"/>
+      <c r="G49" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="29" t="s">
+      <c r="D50" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="28" t="s">
+      <c r="E50" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F46" s="61"/>
-      <c r="G46" s="61"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="47" t="s">
+      <c r="F50" s="61"/>
+      <c r="G50" s="61"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="47"/>
+      <c r="B51" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="48" t="s">
+      <c r="C51" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="E47" s="47" t="s">
+      <c r="E51" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="F47" s="61"/>
-      <c r="G47" s="61"/>
-    </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="51" t="s">
+      <c r="F51" s="61"/>
+      <c r="G51" s="61"/>
+    </row>
+    <row r="52" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B52" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="38" t="s">
+      <c r="C52" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E48" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28" t="s">
+      <c r="E52" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="28"/>
+      <c r="B53" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="29" t="s">
+      <c r="D53" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="28" t="s">
+      <c r="E53" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="40" t="s">
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B54" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="29" t="s">
+      <c r="C54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E54" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F50" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="G50" s="61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-    </row>
-    <row r="52" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
-      <c r="B52" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F52" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52" s="29"/>
-    </row>
-    <row r="53" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
-      <c r="B53" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E53" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" s="29"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54" s="31">
-        <v>21112</v>
-      </c>
-      <c r="G54" s="29"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
-      <c r="B55" s="11" t="s">
-        <v>40</v>
+      <c r="B55" s="40" t="s">
+        <v>32</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="29" t="s">
-        <v>41</v>
+        <v>12</v>
+      </c>
+      <c r="D55" s="39" t="s">
+        <v>26</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55" s="32"/>
+        <v>2</v>
+      </c>
+      <c r="F55" s="29"/>
       <c r="G55" s="29"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
-      <c r="B56" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F56" s="12"/>
+      <c r="B56" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>60</v>
+      </c>
       <c r="G56" s="29"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
-      <c r="B57" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F57" s="12"/>
-      <c r="G57" s="29"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F57" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="55"/>
+    </row>
+    <row r="58" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
-      <c r="B58" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="60" t="s">
-        <v>3</v>
-      </c>
+      <c r="B58" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58" s="29"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
-      <c r="B59" s="62" t="s">
+      <c r="B59" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F59" s="31">
+        <v>21001</v>
+      </c>
+      <c r="G59" s="29"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="40"/>
+      <c r="B60" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F60" s="32"/>
+      <c r="G60" s="29"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="40"/>
+      <c r="B61" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F61" s="12"/>
+      <c r="G61" s="29"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="40"/>
+      <c r="B62" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="12"/>
+      <c r="G62" s="29"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="40"/>
+      <c r="B63" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="60"/>
+      <c r="G63" s="60"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="40"/>
+      <c r="B64" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="C59" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="62" t="s">
+      <c r="C64" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="E59" s="62" t="s">
+      <c r="E64" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="F59" s="60"/>
-      <c r="G59" s="60"/>
-    </row>
-    <row r="60" spans="1:7" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="28" t="s">
+      <c r="F64" s="60"/>
+      <c r="G64" s="60"/>
+    </row>
+    <row r="65" spans="1:7" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B65" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D60" s="29" t="s">
+      <c r="D65" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="28" t="s">
+      <c r="E65" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F60" s="60" t="s">
+      <c r="F65" s="60"/>
+      <c r="G65" s="60"/>
+    </row>
+    <row r="66" spans="1:7" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B66" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="F66" s="60"/>
+      <c r="G66" s="60"/>
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="28"/>
+      <c r="B68" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G60" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="47" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B61" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" s="47" t="s">
+      <c r="E68" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F68" s="60"/>
+      <c r="G68" s="60"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="E69" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F61" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G61" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="51" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D63" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G63" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="E64" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F64" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G64" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F65" s="29"/>
-      <c r="G65" s="29"/>
-    </row>
-    <row r="66" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="40"/>
-      <c r="B66" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="E66" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F66" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G66" s="29"/>
-    </row>
-    <row r="67" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="40"/>
-      <c r="B67" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E67" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="F67" s="34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G67" s="29"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
-      <c r="B68" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F68" s="31">
-        <v>22111</v>
-      </c>
-      <c r="G68" s="29"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F69" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="G69" s="29"/>
+      <c r="F69" s="60"/>
+      <c r="G69" s="60"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+    </row>
+    <row r="71" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="40"/>
+      <c r="B71" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E71" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F71" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G71" s="29"/>
+    </row>
+    <row r="72" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="40"/>
+      <c r="B72" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="E72" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F72" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G72" s="55"/>
+    </row>
+    <row r="73" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="40"/>
+      <c r="B73" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="F73" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G73" s="29"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="40"/>
+      <c r="B74" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E74" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F74" s="31">
+        <v>22225</v>
+      </c>
+      <c r="G74" s="29"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="40"/>
+      <c r="B75" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F75" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G75" s="29"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="40"/>
+      <c r="B76" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="41" t="s">
+      <c r="C76" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D76" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="E70" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="29"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="28"/>
-      <c r="B71" s="28" t="s">
+      <c r="E76" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="F76" s="12"/>
+      <c r="G76" s="29"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="28"/>
+      <c r="B77" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D71" s="29" t="s">
+      <c r="D77" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E71" s="28" t="s">
+      <c r="E77" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F71" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G71" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="52" t="s">
+      <c r="F77" s="60"/>
+      <c r="G77" s="60"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="40"/>
+      <c r="B78" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="54" t="s">
+      <c r="C78" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E72" s="40" t="s">
+      <c r="E78" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F72" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="60" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="40"/>
-      <c r="B73" s="54" t="s">
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="40"/>
+      <c r="B79" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="C73" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="54" t="s">
+      <c r="C79" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E73" s="54" t="s">
+      <c r="E79" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="F73" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="G73" s="60" t="s">
-        <v>3</v>
-      </c>
+      <c r="F79" s="60"/>
+      <c r="G79" s="60"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="37" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A42:G61"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD41"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5483,6 +5609,22 @@
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="42" spans="1:7" s="28" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="B42" s="11"/>
       <c r="D42" s="29"/>
